--- a/04-CAF Advanced - Landing Zones Accelerator/sources/Reliability Review - Composite SLA Estimator - Zones.xlsx
+++ b/04-CAF Advanced - Landing Zones Accelerator/sources/Reliability Review - Composite SLA Estimator - Zones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/jovella_microsoft_com/Documents/Git/CAF-Expert-Learning-Path/04-CAF Advanced - Landing Zones Accelerator/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{5C402405-0F26-4932-A9A4-5D54886656C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D2A5D8F-2C9B-417E-B235-6851BEE5A974}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{5C402405-0F26-4932-A9A4-5D54886656C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E9FCDD9-1C76-491B-8A6B-DEC41FD40664}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
   <si>
     <t>Azure Service</t>
   </si>
@@ -439,16 +439,6 @@
     <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,6 +450,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="16.350000000000001" x14ac:dyDescent="0.65"/>
@@ -1266,46 +1266,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="25.7" x14ac:dyDescent="0.95">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="2:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.65"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.65">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="23"/>
+      <c r="H3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="K3" s="18" t="s">
+      <c r="I3" s="23"/>
+      <c r="K3" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="L3" s="23"/>
+      <c r="N3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="Q3" s="18" t="s">
+      <c r="O3" s="23"/>
+      <c r="Q3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="18"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.65">
       <c r="B4" s="3" t="s">
@@ -1346,10 +1346,12 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.65">
-      <c r="B5" s="9"/>
-      <c r="C5" s="13" t="str">
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13">
         <f t="shared" ref="C5:C24" si="0">IF(B5="","",VLOOKUP(B5,Azure_SLA,2,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>59</v>
@@ -1395,7 +1397,7 @@
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="str">
-        <f t="shared" ref="I5:I24" si="5">IF(H6="","",VLOOKUP(H6,Azure_SLA,2,FALSE))</f>
+        <f t="shared" ref="I6:I24" si="5">IF(H6="","",VLOOKUP(H6,Azure_SLA,2,FALSE))</f>
         <v/>
       </c>
       <c r="K6" s="9"/>
@@ -1991,40 +1993,40 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.65">
-      <c r="B25" s="17" t="str">
+      <c r="B25" s="22" t="str">
         <f>B3</f>
         <v>Global Tier</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="E25" s="17" t="str">
+      <c r="C25" s="22"/>
+      <c r="E25" s="22" t="str">
         <f>E3</f>
         <v>Web Tier</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="H25" s="17" t="str">
+      <c r="F25" s="22"/>
+      <c r="H25" s="22" t="str">
         <f>H3</f>
         <v>API Tier</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="K25" s="17" t="str">
+      <c r="I25" s="22"/>
+      <c r="K25" s="22" t="str">
         <f>K3</f>
         <v>Data Tier</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="N25" s="17" t="str">
+      <c r="L25" s="22"/>
+      <c r="N25" s="22" t="str">
         <f>N3</f>
         <v>Security</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="Q25" s="17" t="str">
+      <c r="O25" s="22"/>
+      <c r="Q25" s="22" t="str">
         <f>Q3</f>
         <v>Network</v>
       </c>
-      <c r="R25" s="17"/>
-      <c r="T25" s="17" t="s">
+      <c r="R25" s="22"/>
+      <c r="T25" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="U25" s="17"/>
+      <c r="U25" s="22"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.65">
       <c r="B26" s="7"/>
@@ -2068,7 +2070,7 @@
       </c>
       <c r="C27" s="11">
         <f>SUBTOTAL(6,C5:C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>74</v>
@@ -2117,9 +2119,9 @@
       <c r="B28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="8">
         <f>IF(C27&gt;0,44640*(1-C27),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>75</v>
@@ -2198,10 +2200,10 @@
       <c r="R30" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="T30" s="17" t="s">
+      <c r="T30" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="U30" s="17"/>
+      <c r="U30" s="22"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.65">
       <c r="T31" s="7" t="s">
@@ -2213,16 +2215,16 @@
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.65">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="K32" s="23" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="K32" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="L32" s="23"/>
+      <c r="L32" s="20"/>
       <c r="T32" s="7" t="s">
         <v>75</v>
       </c>
@@ -2232,47 +2234,35 @@
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.65">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
     </row>
     <row r="34" spans="2:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.65">
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.65">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B32:E34"/>
-    <mergeCell ref="K32:L34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="K25:L25"/>
     <mergeCell ref="T30:U30"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -2281,6 +2271,18 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B32:E34"/>
+    <mergeCell ref="K32:L34"/>
+    <mergeCell ref="B36:E36"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B24 E5:E24 H5:H24 Q5:Q24 N5:N24 K5:K24" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -2299,6 +2301,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBA7836FE01265448CE35DBD83ECBC20" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d8d67384358c1f67d9a20fef5353b77">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="012c6a72-1f1f-48df-bc7c-b0b4dc9b629e" xmlns:ns3="3bada437-31df-4ba2-92ad-dacf49b58384" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63a92f388471f2170bc9201f6a97538" ns2:_="" ns3:_="">
     <xsd:import namespace="012c6a72-1f1f-48df-bc7c-b0b4dc9b629e"/>
@@ -2483,22 +2500,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1694F3AF-1D56-44BF-B082-62C3982DEF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F265493-37BA-4E9F-8D03-E1BDA94FD2FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF4C611-B166-4F4A-950E-64FC034E7881}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2517,23 +2536,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F265493-37BA-4E9F-8D03-E1BDA94FD2FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1694F3AF-1D56-44BF-B082-62C3982DEF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>

--- a/04-CAF Advanced - Landing Zones Accelerator/sources/Reliability Review - Composite SLA Estimator - Zones.xlsx
+++ b/04-CAF Advanced - Landing Zones Accelerator/sources/Reliability Review - Composite SLA Estimator - Zones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25316"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/jovella_microsoft_com/Documents/Git/CAF-Expert-Learning-Path/04-CAF Advanced - Landing Zones Accelerator/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{5C402405-0F26-4932-A9A4-5D54886656C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E9FCDD9-1C76-491B-8A6B-DEC41FD40664}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{5C402405-0F26-4932-A9A4-5D54886656C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1FADCCE-144D-4C1A-9431-F9992639E58D}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="142" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="16.350000000000001" x14ac:dyDescent="0.65"/>
@@ -1365,11 +1365,11 @@
       </c>
       <c r="I5" s="14"/>
       <c r="K5" s="9" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="L5" s="14">
         <f t="shared" ref="L5:L24" si="2">IF(K5="","",VLOOKUP(K5,Azure_SLA,2,FALSE))</f>
-        <v>0.999</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="14" t="str">
@@ -1385,10 +1385,12 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.65">
-      <c r="B6" s="9"/>
-      <c r="C6" s="13" t="str">
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.99990000000000001</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="14" t="str">
@@ -2034,8 +2036,8 @@
       <c r="E26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>73</v>
+      <c r="F26" s="10">
+        <v>2</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>72</v>
@@ -2070,14 +2072,14 @@
       </c>
       <c r="C27" s="11">
         <f>SUBTOTAL(6,C5:C24)</f>
-        <v>1</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="15">
         <f>IF(F26="No",SUBTOTAL(6,F5:F24),1-((1-SUBTOTAL(6,F5:F24))^F26))</f>
-        <v>0.999</v>
+        <v>0.99999899999999997</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>74</v>
@@ -2091,7 +2093,7 @@
       </c>
       <c r="L27" s="15">
         <f>IF(L26="No",SUBTOTAL(6,L5:L24),1-((1-SUBTOTAL(6,L5:L24))^L26))</f>
-        <v>0.999</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>74</v>
@@ -2112,7 +2114,7 @@
       </c>
       <c r="U27" s="16">
         <f>IF(C27&gt;0,C27,1)*IF(F27&gt;0,F27,1)*IF(I27&gt;0,I27,1)*IF(L27&gt;0,L27,1)*IF(O27&gt;0,O27,1)*IF(R27&gt;0,R27,1)</f>
-        <v>0.99790119990000004</v>
+        <v>0.99969903029897</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.65">
@@ -2121,14 +2123,14 @@
       </c>
       <c r="C28" s="8">
         <f>IF(C27&gt;0,44640*(1-C27),"")</f>
-        <v>0</v>
+        <v>4.4639999999995084</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="8">
         <f>IF(F27&gt;0,44640*(1-F27),"")</f>
-        <v>44.640000000000043</v>
+        <v>4.4640000001283653E-2</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>75</v>
@@ -2142,7 +2144,7 @@
       </c>
       <c r="L28" s="8">
         <f>IF(L27&gt;0,44640*(1-L27),"")</f>
-        <v>44.640000000000043</v>
+        <v>4.4639999999995084</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>75</v>
@@ -2163,7 +2165,7 @@
       </c>
       <c r="U28" s="8">
         <f>IF(U27&gt;0,44640*(1-U27),"")</f>
-        <v>93.690436463998424</v>
+        <v>13.435287453979026</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="8.1" customHeight="1" x14ac:dyDescent="0.65"/>
@@ -2174,7 +2176,7 @@
         <v>76</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>76</v>
@@ -2211,7 +2213,7 @@
       </c>
       <c r="U31" s="16">
         <f>IF(C27&gt;0,C27,1)*IF(F27&gt;0,IF(F30="No",F27,(1-(1-F27)*(1-F27))),1)*IF(I27&gt;0,IF(I30="No",I27,(1-(1-I27)*(1-I27))),1)*IF(L27&gt;0,IF(L30="No",L27,(1-(1-L27)*(1-L27))),1)*IF(O27&gt;0,IF(O30="No",O27,(1-(1-O27)*(1-O27))),1)*IF(R27&gt;0,IF(R30="No",R27,(1-(1-R27)*(1-R27))),1)</f>
-        <v>0.99889910109989999</v>
+        <v>0.99980000000100011</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.65">
@@ -2230,7 +2232,7 @@
       </c>
       <c r="U32" s="8">
         <f>IF(U31&gt;0,44640*(1-U31),"")</f>
-        <v>49.144126900464506</v>
+        <v>8.9279999553550482</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.65">
